--- a/SDET_9_PRoject/testData/TestData.xlsx
+++ b/SDET_9_PRoject/testData/TestData.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Contact" sheetId="1" r:id="rId1"/>
-    <sheet name="SingUP" sheetId="3" r:id="rId2"/>
-    <sheet name="addToCart" sheetId="4" r:id="rId3"/>
-    <sheet name="addToCartTest" sheetId="5" r:id="rId4"/>
-    <sheet name="Org" sheetId="2" r:id="rId5"/>
+    <sheet name="product" sheetId="6" r:id="rId2"/>
+    <sheet name="SingUP" sheetId="3" r:id="rId3"/>
+    <sheet name="addToCart" sheetId="4" r:id="rId4"/>
+    <sheet name="addToCartTest" sheetId="5" r:id="rId5"/>
+    <sheet name="Org" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I13"/>
+  <oleSize ref="A1:H13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="140">
   <si>
     <t>TestID</t>
   </si>
@@ -432,6 +433,18 @@
   </si>
   <si>
     <t>tc_10</t>
+  </si>
+  <si>
+    <t>666</t>
+  </si>
+  <si>
+    <t>unitPrice</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>Contact</t>
   </si>
 </sst>
 </file>
@@ -473,11 +486,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -761,7 +775,7 @@
   <dimension ref="A1:L314"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,7 +795,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -1246,6 +1260,76 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView zoomScale="130" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScale="130" workbookViewId="0">
@@ -1306,7 +1390,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C109"/>
   <sheetViews>
@@ -1734,7 +1818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C50"/>
   <sheetViews>
@@ -2299,7 +2383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
